--- a/Assets/MiniTemplate/Datas/SkillParam.xlsx
+++ b/Assets/MiniTemplate/Datas/SkillParam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,22 @@
   </si>
   <si>
     <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftPunching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightPunching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,6 +642,58 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>0.6</v>
+      </c>
+      <c r="H7">
+        <v>0.6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.26</v>
+      </c>
+      <c r="H8">
+        <v>0.26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/MiniTemplate/Datas/SkillParam.xlsx
+++ b/Assets/MiniTemplate/Datas/SkillParam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,26 @@
   </si>
   <si>
     <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>univ1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>univ0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>univ1102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,7 +506,7 @@
     <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -514,8 +534,11 @@
       <c r="I1" t="s">
         <v>24</v>
       </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -543,8 +566,11 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -564,7 +590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -589,8 +615,11 @@
       <c r="I4" t="s">
         <v>26</v>
       </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1002</v>
       </c>
@@ -615,8 +644,11 @@
       <c r="I5" t="s">
         <v>27</v>
       </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1003</v>
       </c>
@@ -641,8 +673,11 @@
       <c r="I6" t="s">
         <v>26</v>
       </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1004</v>
       </c>
@@ -668,7 +703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1005</v>
       </c>
@@ -685,10 +720,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G8">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="H8">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>

--- a/Assets/MiniTemplate/Datas/SkillParam.xlsx
+++ b/Assets/MiniTemplate/Datas/SkillParam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>univ1102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackAnimationNormalizedEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackAnimationNormalizedStartTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -502,11 +514,14 @@
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.625" customWidth="1"/>
+    <col min="10" max="10" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -526,19 +541,25 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -558,19 +579,25 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -586,11 +613,11 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -607,19 +634,25 @@
         <v>0.4</v>
       </c>
       <c r="G4">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H4">
         <v>0.8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.8</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1002</v>
       </c>
@@ -636,19 +669,25 @@
         <v>0.2</v>
       </c>
       <c r="G5">
-        <v>1.07</v>
+        <v>0.371</v>
       </c>
       <c r="H5">
         <v>1.07</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J5">
+        <v>1.07</v>
+      </c>
+      <c r="K5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1003</v>
       </c>
@@ -659,25 +698,31 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G6">
+        <v>0.254</v>
+      </c>
+      <c r="H6">
+        <v>1.07</v>
+      </c>
+      <c r="I6">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="J6">
         <v>1.23</v>
       </c>
-      <c r="H6">
-        <v>1.23</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1004</v>
       </c>
@@ -694,16 +739,22 @@
         <v>0.3</v>
       </c>
       <c r="G7">
-        <v>0.6</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="H7">
         <v>0.6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.6</v>
+      </c>
+      <c r="K7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1005</v>
       </c>
@@ -720,12 +771,18 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G8">
-        <v>0.4</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="H8">
         <v>0.4</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.4</v>
+      </c>
+      <c r="K8" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Assets/MiniTemplate/Datas/SkillParam.xlsx
+++ b/Assets/MiniTemplate/Datas/SkillParam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,14 @@
   </si>
   <si>
     <t>attackAnimationNormalizedStartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackPointNormalizedEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,14 +522,15 @@
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.625" customWidth="1"/>
-    <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.625" customWidth="1"/>
-    <col min="10" max="10" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.625" customWidth="1"/>
+    <col min="9" max="9" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.625" customWidth="1"/>
+    <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -538,28 +547,31 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -576,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -591,13 +603,16 @@
         <v>9</v>
       </c>
       <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -610,14 +625,14 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -631,28 +646,31 @@
         <v>0.4</v>
       </c>
       <c r="F4">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="G4">
         <v>0.4</v>
       </c>
       <c r="H4">
+        <v>0.4</v>
+      </c>
+      <c r="I4">
         <v>0.8</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.59599999999999997</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.8</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1002</v>
       </c>
@@ -666,28 +684,31 @@
         <v>0.2</v>
       </c>
       <c r="F5">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G5">
         <v>0.2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.371</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.07</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.67900000000000005</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.07</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1003</v>
       </c>
@@ -701,28 +722,31 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F6">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.254</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.07</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.66300000000000003</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.23</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1004</v>
       </c>
@@ -736,25 +760,28 @@
         <v>0.3</v>
       </c>
       <c r="F7">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="G7">
         <v>0.3</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.6</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.48299999999999998</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.6</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1005</v>
       </c>
@@ -768,21 +795,24 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F8">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="G8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.28299999999999997</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.4</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.48799999999999999</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.4</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Assets/MiniTemplate/Datas/SkillParam.xlsx
+++ b/Assets/MiniTemplate/Datas/SkillParam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy Full Metal Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -753,8 +757,8 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7">
-        <v>10</v>
+      <c r="D7" t="s">
+        <v>42</v>
       </c>
       <c r="E7">
         <v>0.3</v>

--- a/Assets/MiniTemplate/Datas/SkillParam.xlsx
+++ b/Assets/MiniTemplate/Datas/SkillParam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,39 +157,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>univ0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>univ1102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackAnimationNormalizedEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackAnimationNormalizedStartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackPointNormalizedEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KatanaAttack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>univ1101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>univ0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>univ1102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackAnimationNormalizedEndTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackAnimationNormalizedStartTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackPointNormalizedEndTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heavy Full Metal Sword</t>
+    <t>univ1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KatanaAttack2</t>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KatanaAttack3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,16 +534,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.125" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="29.625" bestFit="1" customWidth="1"/>
@@ -551,19 +570,19 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -592,13 +611,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -671,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -709,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -747,7 +766,7 @@
         <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -757,8 +776,8 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>42</v>
+      <c r="D7">
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0.3</v>
@@ -818,6 +837,120 @@
       </c>
       <c r="L8" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1006</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0.36</v>
+      </c>
+      <c r="F9">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.37</v>
+      </c>
+      <c r="H9">
+        <v>0.31</v>
+      </c>
+      <c r="I9">
+        <v>0.59</v>
+      </c>
+      <c r="J9">
+        <v>0.49</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0.59</v>
+      </c>
+      <c r="F10">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.6</v>
+      </c>
+      <c r="H10">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="I10">
+        <v>1.3</v>
+      </c>
+      <c r="J10">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="K10">
+        <v>1.31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1008</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.38</v>
+      </c>
+      <c r="J11">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/MiniTemplate/Datas/SkillParam.xlsx
+++ b/Assets/MiniTemplate/Datas/SkillParam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,26 @@
   </si>
   <si>
     <t>KatanaAttack3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motionSpeedBeforeAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motionSpeedDuringAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motionSpeedWhileHit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,13 +251,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,14 +282,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,91 +589,112 @@
     <col min="9" max="9" width="29.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.625" customWidth="1"/>
     <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -655,7 +714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -692,8 +751,17 @@
       <c r="M4" t="s">
         <v>43</v>
       </c>
+      <c r="N4">
+        <v>0.8</v>
+      </c>
+      <c r="O4">
+        <v>1.5</v>
+      </c>
+      <c r="P4">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1002</v>
       </c>
@@ -730,8 +798,17 @@
       <c r="M5" t="s">
         <v>34</v>
       </c>
+      <c r="N5">
+        <v>0.8</v>
+      </c>
+      <c r="O5">
+        <v>1.4</v>
+      </c>
+      <c r="P5">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1003</v>
       </c>
@@ -768,8 +845,17 @@
       <c r="M6" t="s">
         <v>35</v>
       </c>
+      <c r="N6">
+        <v>0.7</v>
+      </c>
+      <c r="O6">
+        <v>1.2</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1004</v>
       </c>
@@ -803,8 +889,17 @@
       <c r="L7" t="s">
         <v>29</v>
       </c>
+      <c r="N7">
+        <v>0.7</v>
+      </c>
+      <c r="O7">
+        <v>1.2</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1005</v>
       </c>
@@ -838,8 +933,17 @@
       <c r="L8" t="s">
         <v>31</v>
       </c>
+      <c r="N8">
+        <v>0.7</v>
+      </c>
+      <c r="O8">
+        <v>1.2</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1006</v>
       </c>
@@ -876,8 +980,17 @@
       <c r="M9" t="s">
         <v>44</v>
       </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1.5</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1007</v>
       </c>
@@ -914,8 +1027,17 @@
       <c r="M10" t="s">
         <v>34</v>
       </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1.5</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1008</v>
       </c>
@@ -951,6 +1073,15 @@
       </c>
       <c r="M11" t="s">
         <v>35</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1.7</v>
+      </c>
+      <c r="P11">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/MiniTemplate/Datas/SkillParam.xlsx
+++ b/Assets/MiniTemplate/Datas/SkillParam.xlsx
@@ -575,7 +575,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -981,7 +981,7 @@
         <v>44</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="O9">
         <v>1.5</v>
@@ -1028,7 +1028,7 @@
         <v>34</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="O10">
         <v>1.5</v>
@@ -1075,7 +1075,7 @@
         <v>35</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="O11">
         <v>1.7</v>

--- a/Assets/MiniTemplate/Datas/SkillParam.xlsx
+++ b/Assets/MiniTemplate/Datas/SkillParam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -981,13 +981,13 @@
         <v>44</v>
       </c>
       <c r="N9">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
         <v>1.5</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1028,13 +1028,13 @@
         <v>34</v>
       </c>
       <c r="N10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="O10">
         <v>1.5</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1051,13 +1051,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F11">
-        <v>0.34699999999999998</v>
+        <v>0.247</v>
       </c>
       <c r="G11">
         <v>0.3</v>
       </c>
       <c r="H11">
-        <v>0.35899999999999999</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="I11">
         <v>0.38</v>
@@ -1075,7 +1075,7 @@
         <v>35</v>
       </c>
       <c r="N11">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="O11">
         <v>1.7</v>

--- a/Assets/MiniTemplate/Datas/SkillParam.xlsx
+++ b/Assets/MiniTemplate/Datas/SkillParam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,15 +45,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attackAnimationStartTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attackAnimationEndTime</t>
+    <t>backswingStartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スキル名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備モーションの終了時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>great sword slash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>great sword slash 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>great sword slash 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftPunching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightPunching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>univ0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>univ1102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,67 +149,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>backswingStartTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>スキル名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻撃力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>アタックモーションの開始時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>アタックモーションの終了時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>準備モーションの終了時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>great sword slash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>great sword slash 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>great sword slash 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
+    <t>attackAnimationNormalizedEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackAnimationNormalizedStartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackPointNormalizedEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KatanaAttack1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,39 +173,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>univ1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>univ1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KatanaAttack2</t>
+  </si>
+  <si>
     <t>Player</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LeftPunching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightPunching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>univ0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>univ1102</t>
+    <t>KatanaAttack3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motionSpeedBeforeAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,15 +200,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attackAnimationNormalizedEndTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackAnimationNormalizedStartTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackPointNormalizedEndTime</t>
+    <t>motionSpeedDuringAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,50 +208,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KatanaAttack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>univ1101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>univ1101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KatanaAttack2</t>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KatanaAttack3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motionSpeedBeforeAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motionSpeedDuringAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>motionSpeedWhileHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,9 +280,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -572,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -584,22 +578,20 @@
     <col min="4" max="4" width="59.125" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.625" customWidth="1"/>
-    <col min="9" max="9" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.625" customWidth="1"/>
-    <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="29.625" customWidth="1"/>
+    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -611,45 +603,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -661,65 +650,56 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -734,39 +714,36 @@
         <v>0.4</v>
       </c>
       <c r="H4">
-        <v>0.4</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="I4">
         <v>0.8</v>
       </c>
-      <c r="J4">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="K4">
-        <v>0.8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>1.7</v>
+      </c>
+      <c r="M4">
+        <v>1.7</v>
       </c>
       <c r="N4">
-        <v>0.8</v>
-      </c>
-      <c r="O4">
-        <v>1.5</v>
-      </c>
-      <c r="P4">
         <v>0.3</v>
       </c>
+      <c r="O4" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1002</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>17</v>
@@ -778,42 +755,39 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0.371</v>
       </c>
       <c r="H5">
-        <v>0.371</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="I5">
         <v>1.07</v>
       </c>
-      <c r="J5">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="K5">
-        <v>1.07</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5">
+        <v>1.7</v>
+      </c>
+      <c r="M5">
+        <v>1.7</v>
       </c>
       <c r="N5">
-        <v>0.8</v>
-      </c>
-      <c r="O5">
-        <v>1.4</v>
-      </c>
-      <c r="P5">
         <v>0.2</v>
       </c>
+      <c r="O5" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1003</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -825,42 +799,39 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="G6">
-        <v>0.14000000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="H6">
-        <v>0.254</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="I6">
-        <v>1.07</v>
-      </c>
-      <c r="J6">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="K6">
         <v>1.23</v>
       </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>1.5</v>
+      </c>
+      <c r="M6">
+        <v>1.5</v>
       </c>
       <c r="N6">
-        <v>0.7</v>
-      </c>
-      <c r="O6">
-        <v>1.2</v>
-      </c>
-      <c r="P6">
         <v>0.2</v>
       </c>
+      <c r="O6" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1004</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -872,39 +843,36 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="G7">
-        <v>0.3</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="H7">
-        <v>0.29199999999999998</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="I7">
         <v>0.6</v>
       </c>
-      <c r="J7">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="K7">
-        <v>0.6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>0.7</v>
-      </c>
-      <c r="O7">
-        <v>1.2</v>
-      </c>
-      <c r="P7">
         <v>1</v>
       </c>
+      <c r="O7" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1005</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -916,39 +884,36 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="G8">
-        <v>0.14000000000000001</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="H8">
-        <v>0.28299999999999997</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="I8">
         <v>0.4</v>
       </c>
-      <c r="J8">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.4</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>0.7</v>
-      </c>
-      <c r="O8">
-        <v>1.2</v>
-      </c>
-      <c r="P8">
         <v>1</v>
       </c>
+      <c r="O8" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1006</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -960,42 +925,39 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="G9">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="H9">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
       <c r="I9">
-        <v>0.59</v>
-      </c>
-      <c r="J9">
-        <v>0.49</v>
-      </c>
-      <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s">
-        <v>44</v>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
-      </c>
-      <c r="O9">
-        <v>1.5</v>
-      </c>
-      <c r="P9">
         <v>0.8</v>
       </c>
+      <c r="O9" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1007</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1007,42 +969,39 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="G10">
-        <v>0.6</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="H10">
-        <v>0.45700000000000002</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="I10">
-        <v>1.3</v>
-      </c>
-      <c r="J10">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="K10">
         <v>1.31</v>
       </c>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" t="s">
-        <v>34</v>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
-      </c>
-      <c r="O10">
-        <v>1.5</v>
-      </c>
-      <c r="P10">
         <v>0.8</v>
       </c>
+      <c r="O10" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1008</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -1054,34 +1013,31 @@
         <v>0.247</v>
       </c>
       <c r="G11">
-        <v>0.3</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="H11">
-        <v>0.25900000000000001</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="I11">
-        <v>0.38</v>
-      </c>
-      <c r="J11">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="K11">
         <v>0.55100000000000005</v>
       </c>
-      <c r="L11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" t="s">
-        <v>35</v>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>1.7</v>
-      </c>
-      <c r="O11">
-        <v>1.7</v>
-      </c>
-      <c r="P11">
         <v>0.5</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/MiniTemplate/Datas/SkillParam.xlsx
+++ b/Assets/MiniTemplate/Datas/SkillParam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,7 +702,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0.4</v>
@@ -746,7 +746,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -790,7 +790,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.14000000000000001</v>
@@ -916,7 +916,7 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0.36</v>
@@ -960,7 +960,7 @@
         <v>40</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0.59</v>
@@ -1004,7 +1004,7 @@
         <v>42</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0.28999999999999998</v>
